--- a/output/StructureDefinition-IDCoreVSBPDiastolic.xlsx
+++ b/output/StructureDefinition-IDCoreVSBPDiastolic.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T17:23:47+07:00</t>
+    <t>2024-05-23T10:54:59+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IDCoreVSBPDiastolic.xlsx
+++ b/output/StructureDefinition-IDCoreVSBPDiastolic.xlsx
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:54:59+07:00</t>
+    <t>2024-05-29T21:39:03+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Thomas Chaidir</t>
+    <t>SatuSehat</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>SatuSehat (https://satusehat.kemkes.go.id/, fhir@dto.kemkes.go.id)</t>
   </si>
   <si>
     <t>Description</t>

--- a/output/StructureDefinition-IDCoreVSBPDiastolic.xlsx
+++ b/output/StructureDefinition-IDCoreVSBPDiastolic.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T21:39:03+07:00</t>
+    <t>2024-05-30T10:41:30+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1177,6 +1177,10 @@
   </si>
   <si>
     <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+dias-ele-1:Observation value should be between 0 - 450 #mm[Hg] {Observation.value.as(Quantity).value &gt;= 0 and Observation.value.as(Quantity).value &lt;= 450}</t>
   </si>
   <si>
     <t>Observation.value[x]:valueQuantity.id</t>
@@ -7829,7 +7833,7 @@
         <v>367</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7852,10 +7856,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7970,10 +7974,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8090,10 +8094,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8116,19 +8120,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8177,7 +8181,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8198,10 +8202,10 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8212,10 +8216,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8241,20 +8245,20 @@
         <v>111</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>80</v>
@@ -8278,10 +8282,10 @@
         <v>180</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8299,7 +8303,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8320,10 +8324,10 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8334,10 +8338,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8363,14 +8367,14 @@
         <v>197</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8419,7 +8423,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8440,10 +8444,10 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8454,10 +8458,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8483,21 +8487,21 @@
         <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>80</v>
@@ -8539,7 +8543,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8548,7 +8552,7 @@
         <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>103</v>
@@ -8560,10 +8564,10 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8574,10 +8578,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8603,23 +8607,23 @@
         <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>80</v>
@@ -8661,7 +8665,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8682,10 +8686,10 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8696,10 +8700,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8725,16 +8729,16 @@
         <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8763,7 +8767,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8781,7 +8785,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8790,7 +8794,7 @@
         <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>103</v>
@@ -8805,7 +8809,7 @@
         <v>134</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8816,14 +8820,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8845,16 +8849,16 @@
         <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8883,7 +8887,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8901,7 +8905,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8919,27 +8923,27 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8962,19 +8966,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9023,7 +9027,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9044,10 +9048,10 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9058,10 +9062,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9087,13 +9091,13 @@
         <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9123,7 +9127,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -9141,7 +9145,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9159,27 +9163,27 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9205,16 +9209,16 @@
         <v>188</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9243,7 +9247,7 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9261,7 +9265,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9282,10 +9286,10 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9296,10 +9300,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9322,16 +9326,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9381,7 +9385,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9399,27 +9403,27 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9442,16 +9446,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9501,7 +9505,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9519,27 +9523,27 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9562,19 +9566,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9623,7 +9627,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9635,7 +9639,7 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9644,10 +9648,10 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9658,10 +9662,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9776,10 +9780,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9896,14 +9900,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9925,10 +9929,10 @@
         <v>137</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>140</v>
@@ -9983,7 +9987,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10018,10 +10022,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10044,13 +10048,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10101,7 +10105,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10110,7 +10114,7 @@
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -10122,10 +10126,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10136,10 +10140,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10162,13 +10166,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10219,7 +10223,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10228,7 +10232,7 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10240,10 +10244,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10254,10 +10258,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10283,16 +10287,16 @@
         <v>188</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10321,7 +10325,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10339,7 +10343,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10357,13 +10361,13 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10374,10 +10378,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10403,16 +10407,16 @@
         <v>188</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10441,7 +10445,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10459,7 +10463,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10477,13 +10481,13 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10494,10 +10498,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10520,17 +10524,17 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10579,7 +10583,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10603,7 +10607,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10614,10 +10618,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10643,10 +10647,10 @@
         <v>197</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10697,7 +10701,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10718,10 +10722,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10732,10 +10736,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10758,16 +10762,16 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10817,7 +10821,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10838,10 +10842,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10852,10 +10856,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10878,16 +10882,16 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10937,7 +10941,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10958,10 +10962,10 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10972,10 +10976,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10998,19 +11002,19 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11059,7 +11063,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11080,10 +11084,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11094,10 +11098,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11212,10 +11216,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11332,14 +11336,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11361,10 +11365,10 @@
         <v>137</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>140</v>
@@ -11419,7 +11423,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11454,10 +11458,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11483,13 +11487,13 @@
         <v>188</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>272</v>
@@ -11539,7 +11543,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>91</v>
@@ -11557,7 +11561,7 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>276</v>
@@ -11574,10 +11578,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11600,16 +11604,16 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>362</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>364</v>
@@ -11661,7 +11665,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11679,7 +11683,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>369</v>
@@ -11696,10 +11700,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11725,16 +11729,16 @@
         <v>188</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11763,7 +11767,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11781,7 +11785,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11790,7 +11794,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>103</v>
@@ -11805,7 +11809,7 @@
         <v>134</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11816,14 +11820,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11845,16 +11849,16 @@
         <v>188</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11883,7 +11887,7 @@
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -11901,7 +11905,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11919,27 +11923,27 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11965,16 +11969,16 @@
         <v>81</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12023,7 +12027,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12044,10 +12048,10 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
